--- a/src/main/resources/ReleaseNotes.xlsx
+++ b/src/main/resources/ReleaseNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F460FDAA-F195-48DC-8FFA-ABD993131D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36821A6-E743-4056-9FB9-E16D9F562755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,10 +396,13 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="98.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
